--- a/biology/Médecine/Pierre_Joseph_Courtoy/Pierre_Joseph_Courtoy.xlsx
+++ b/biology/Médecine/Pierre_Joseph_Courtoy/Pierre_Joseph_Courtoy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Courtoy (né en 1949) est un médecin belge, chercheur et professeur d'université.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né Pierre Joseph Courtoy, 14 octobre 1949, il est le second fils du gynécologue Albert Courtoy et de Godelieve Shockaert, elle-même respectivement fille et sœur de Rufin Schockaert et Joseph Schockaert (tous deux professeurs de gynécologie à Louvain). Il est également le neveu de Charles Courtoy, jésuite et professeur de physique à l'université de Namur (anciennement Faculté Universitaire Notre-Dame de la Paix, FUNDP).
 </t>
@@ -542,7 +556,9 @@
           <t>Formation universitaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Courtoy entame ses études de médecine aux FUNPD avant de rejoindre l'université catholique de Louvain. Il est promu candidat (1973) puis docteur en médecine à 23 ans, chaque fois avec la plus grande distinction et les félicitations du jury pour souligner son activité d’étudiant-chercheur. Après sa formation en médecine interne, il effectue des séjours postdoctoraux à Paris, il développe l’immunolocalisation tissulaire à l’échelle ultrastructurale, et à Yale où il se spécialise en biologie cellulaire et en microscopie électronique avec Marilyn Farquhar et Georges Palade (co-lauréat du prix Nobel avec Christian de Duve et Albert Claude). En 1985, il défend une thèse d’agrégation démontrant le tri par les endosomes, intégrant la microscopie et le fractionnement. Il rejoint le FNRS. En 1990, il lance le groupe européen de l’endocytose et dirige la première conférence de l’European Science Foundation de type Gordon.
 </t>
@@ -573,11 +589,13 @@
           <t>Carrière académique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il entre dans la carrière académique en 1992 et édite un livre de référence sur l'endocytose dès sa nomination à l'ICP (futur institut de Duve), à l'Université catholique de Louvain[1]. Sept ans plus tard, il est nommé professeur ordinaire (1999).
-En tant qu'enseignant, Pierre Courtoy a modernisé ses cours de biologie cellulaire et de pathologie générale, très populaires auprès des étudiants en médecine, pharmacologie, biomédecine et dentisterie. Il intègre des concepts de maïeutique, d'histoire et de philosophie pour encourager la pensée scientifique, autonome et critique. À partir des années 2010, il offre des enregistrements de ses cours, accessibles librement[2].
-Au cours de sa carrière de chercheur, Pierre Courtoy a consacré 35 ans à l’étude de l’appareil endocytaire normal et pathologique et signé plus de 230 publications scientifiques (&gt;15.000 citations). Il siège dans de nombreuses commissions nationales et internationales de financement de la recherche. Il a été conseiller de deux doyens, président de Département, président de la Commission des Promotions, président de jurys. Passionné de recherche, il accueille de nombreux étudiants en maitrise, doctorat et postdoctorat dans son laboratoire. Il y fonde la Plateforme d’Imagerie Cellulaire et Tissulaire (PICT [3]), performante, collaborative et ouverte aux chercheurs. Il accède à l'éméritat en décembre 2015 [4] et reste activement impliqué dans plusieurs programmes de recherche, notamment sur la cystinose[5],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il entre dans la carrière académique en 1992 et édite un livre de référence sur l'endocytose dès sa nomination à l'ICP (futur institut de Duve), à l'Université catholique de Louvain. Sept ans plus tard, il est nommé professeur ordinaire (1999).
+En tant qu'enseignant, Pierre Courtoy a modernisé ses cours de biologie cellulaire et de pathologie générale, très populaires auprès des étudiants en médecine, pharmacologie, biomédecine et dentisterie. Il intègre des concepts de maïeutique, d'histoire et de philosophie pour encourager la pensée scientifique, autonome et critique. À partir des années 2010, il offre des enregistrements de ses cours, accessibles librement.
+Au cours de sa carrière de chercheur, Pierre Courtoy a consacré 35 ans à l’étude de l’appareil endocytaire normal et pathologique et signé plus de 230 publications scientifiques (&gt;15.000 citations). Il siège dans de nombreuses commissions nationales et internationales de financement de la recherche. Il a été conseiller de deux doyens, président de Département, président de la Commission des Promotions, président de jurys. Passionné de recherche, il accueille de nombreux étudiants en maitrise, doctorat et postdoctorat dans son laboratoire. Il y fonde la Plateforme d’Imagerie Cellulaire et Tissulaire (PICT ), performante, collaborative et ouverte aux chercheurs. Il accède à l'éméritat en décembre 2015  et reste activement impliqué dans plusieurs programmes de recherche, notamment sur la cystinose,.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2013: premier lauréat du Prix du Secteur des sciences de la santé [7]. 2004: titulaire d'une chaire Francqui [8].1998: nommé Chevalier de l'Ordre de Léopold par Albert II [9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2013: premier lauréat du Prix du Secteur des sciences de la santé . 2004: titulaire d'une chaire Francqui .1998: nommé Chevalier de l'Ordre de Léopold par Albert II .
 </t>
         </is>
       </c>
